--- a/Meldungen_Bsp.xlsx
+++ b/Meldungen_Bsp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="160">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -38,25 +38,295 @@
     <t xml:space="preserve">Verein</t>
   </si>
   <si>
+    <t xml:space="preserve">Aumann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASV Oberwössen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tristan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Grassau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achhorner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Kössen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufhammer-Straif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna-Lena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Günther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brecka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foidl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girrulat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glassmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Großkämpfer-Aicher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hofer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeßner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitzbichler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechthaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leitner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moosmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mühlberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obermoser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlechter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schroll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oskar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwentner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steinlechner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voppichler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hannah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wimmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matteo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birnbacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Schleching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höglauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleinschroth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonhard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mix</t>
   </si>
   <si>
-    <t xml:space="preserve">Julian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC Schleching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höglauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kleinschroth</t>
+    <t xml:space="preserve">Porada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
   </si>
   <si>
     <t xml:space="preserve">Reisenauer</t>
@@ -71,34 +341,121 @@
     <t xml:space="preserve">Maxi</t>
   </si>
   <si>
-    <t xml:space="preserve">Simon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birnbacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amelie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria</t>
+    <t xml:space="preserve">Ager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV Unterwössen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Döllerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Givoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSV Marquartstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayersdorfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klippel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kropp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niklas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohleder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaunmüller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüntges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSV Reit im Winkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raubinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trattler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix</t>
   </si>
   <si>
     <t xml:space="preserve">Klasse</t>
@@ -218,8 +575,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,10 +601,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,19 +615,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -278,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
@@ -309,92 +670,92 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2013</v>
@@ -403,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,16 +772,16 @@
         <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,10 +795,1285 @@
         <v>2012</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
+      <c r="C21" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -459,37 +2095,37 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="A1:E1 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2020</v>
@@ -500,10 +2136,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2020</v>
@@ -514,10 +2150,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2012</v>
@@ -528,10 +2164,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2012</v>
@@ -542,10 +2178,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2011</v>
@@ -556,10 +2192,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2011</v>
@@ -570,10 +2206,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2010</v>
@@ -584,10 +2220,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2010</v>
@@ -598,10 +2234,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2009</v>
@@ -612,10 +2248,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2009</v>
@@ -626,10 +2262,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2007</v>
@@ -640,10 +2276,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2007</v>
